--- a/Github.Inaccurate.Affected.Components_append.xlsx
+++ b/Github.Inaccurate.Affected.Components_append.xlsx
@@ -10,14 +10,14 @@
     <sheet name="github_wrong_component_2023_11_" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">github_wrong_component_2023_11_!$A$1:$A$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">github_wrong_component_2023_11_!$A$1:$A$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Source</t>
   </si>
@@ -37,7 +37,8 @@
     <t>github</t>
   </si>
   <si>
-    <t>CVE-2020-10544</t>
+    <t>CVE-2020-10544
+GHSA-fw5f-7c6c-3vmv</t>
   </si>
   <si>
     <t>maven__fdse__org.primefaces:primefaces</t>
@@ -46,10 +47,11 @@
     <t>npm__fdse__primefaces</t>
   </si>
   <si>
-    <t>primefaces(https://github.com/primefaces/primefaces) is managed by maven and have pom.xml. in the readme there is also a maven badge, and mvn install guidance, so we think maven is the mainstream ecoysytem, patch: https://github.com/primefaces/primefaces/commit/9982c4f7a83f75e3ab06168fa283e3d6128dfd1f</t>
-  </si>
-  <si>
-    <t>CVE-2020-35728</t>
+    <t>primefaces(https://github.com/primefaces/primefaces) is managed by maven and have pom.xml. in the readme there is also a maven badge, and mvn install guidance, so we think maven is a also a mainstream ecoysytem for this package, patch: https://github.com/primefaces/primefaces/commit/9982c4f7a83f75e3ab06168fa283e3d6128dfd1f</t>
+  </si>
+  <si>
+    <t>CVE-2020-35728
+GHSA-5r5r-6hpj-8gg9</t>
   </si>
   <si>
     <t>maven__fdse__com.fasterxml.jackson.core:jackson-databind</t>
@@ -61,7 +63,8 @@
     <t>the patch is in https://github.com/FasterXML/jackson-databind/commit/1ca0388c2fb37ac6a06f1c188ae89c41e3e15e84. The old version mishandles the interaction between serialization gadgets and typing. The badge in the repo (https://github.com/FasterXML/jackson-databind/tree/1ca0388c2fb37ac6a06f1c188ae89c41e3e15e84) readme is https://maven-badges.herokuapp.com/maven-central/com.fasterxml.jackson.core/jackson-databind, groupid is com.fasterxml.jackson.core</t>
   </si>
   <si>
-    <t>CVE-2011-5245</t>
+    <t>CVE-2011-5245
+GHSA-g4jg-gpwv-p7wv</t>
   </si>
   <si>
     <t>maven__fdse__org.jboss.resteasy:resteasy-jaxb-provider</t>
@@ -70,10 +73,11 @@
     <t>maven__fdse__org.jboss.resteasy:resteasy-client</t>
   </si>
   <si>
-    <t>We can search for vulnerable 'providers.jaxb.JAXBXmlTypeProvider' mentioned in the CVE description, and find that it is in org/jboss/resteasy/plugins/providers/jaxb/JAXBXmlTypeProvider.java that belong to g.jboss.resteasy:resteasy-jaxb-provider</t>
-  </si>
-  <si>
-    <t>CVE-2018-21234</t>
+    <t>We can search for vulnerable 'providers.jaxb.JAXBXmlTypeProvider' mentioned in the CVE description, and find that it is in org/jboss/resteasy/plugins/providers/jaxb/JAXBXmlTypeProvider.java that belong to org.jboss.resteasy:resteasy-jaxb-provider https://github.com/resteasy/resteasy/blob/7f401e685492e50663622a0b306baec14ac7d8c0/providers/jaxb/src/main/java/org/jboss/resteasy/plugins/providers/jaxb/JAXBXmlTypeProvider.java#L67</t>
+  </si>
+  <si>
+    <t>CVE-2018-21234
+GHSA-jrg3-qq99-35g7</t>
   </si>
   <si>
     <t>maven__fdse__org.jodd:jodd-json</t>
@@ -82,22 +86,11 @@
     <t>maven__fdse__org.jodd:jodd-all</t>
   </si>
   <si>
-    <t>when setClassMetadataName is set, Jodd performs Deserialization of Untrusted JSON Data, and the most impoertant thing is set white list for setClassMetadataName in jodd-json/src/main/java/jodd/json/JsonParser.java, i think the artifact is clear https://github.com/oblac/jodd/commit/9bffc3913aeb8472c11bb543243004b4b4376f16#diff-f6404e63298ea7639d8739c363a5762b9860b622e8e1f55e3c15b946b9d95579, you can infer the affected artifact from the patch path</t>
-  </si>
-  <si>
-    <t>CVE-2020-1942</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.nifi:nifi-framework-core</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.nifi:nifi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the patch is located in https://github.com/apache/nifi/pull/4028, found in https://nifi.apache.org/security.html#CVE-2020-1942, which the vulnerable fingerprint factory is changed, </t>
-  </si>
-  <si>
-    <t>CVE-2020-17518</t>
+    <t>when setClassMetadataName is set, Jodd performs Deserialization of Untrusted JSON Data, and the most impoertant thing is set white list for setClassMetadataName in jodd-json/src/main/java/jodd/json/JsonParser.java, we think the artifact is clear https://github.com/oblac/jodd/commit/9bffc3913aeb8472c11bb543243004b4b4376f16#diff-f6404e63298ea7639d8739c363a5762b9860b622e8e1f55e3c15b946b9d95579, you can infer the affected artifact from the patch path</t>
+  </si>
+  <si>
+    <t>CVE-2020-17518
+GHSA-7q5g-gph2-4rc6</t>
   </si>
   <si>
     <t>maven__fdse__org.apache.flink:flink-runtime</t>
@@ -109,7 +102,8 @@
     <t>we find the patch, which modified only the one class: FileUploadHandler, https://github.com/apache/flink/commit/a5264a6f41524afe8ceadf1d8ddc8c80f323ebc4#diff-7920624ff6651ac9897c79309c0a94073a4e7afb111e926c8341492f3a730051</t>
   </si>
   <si>
-    <t>CVE-2020-11980</t>
+    <t>CVE-2020-11980
+GHSA-9jg9-6wm2-x7p5</t>
   </si>
   <si>
     <t>maven__fdse__org.apache.karaf.management:org.apache.karaf.management.server</t>
@@ -118,22 +112,11 @@
     <t>maven__fdse__org.apache.karaf:karaf</t>
   </si>
   <si>
-    <t>the https://github.com/apache/karaf/commit/3e4c4bed2d08e81ca5961ab5fcadab23470db1c9 patched the vulnerability and It's possible to authenticate as a viewer role + invokes on the MLet getMBeansFromURL method, which goes off to a remote server to fetch the desired MBean, which is then registered in Karaf.</t>
-  </si>
-  <si>
-    <t>CVE-2020-8555</t>
-  </si>
-  <si>
-    <t>go__fdse__k8s.io:kubernetes</t>
-  </si>
-  <si>
-    <t>go__fdse__github.com:kubernetes:kubernetes:pkg:volume:storageos</t>
-  </si>
-  <si>
-    <t>the patch https://github.com/kubernetes/kubernetes/pull/89794/commits/63ee9b3f4f9b1286b2f4a6813cdeb767661a1a4c indicates kube-controller-manager in are vulnerable to a Server Side Request Forgery and the go.mod in https://github.com/kubernetes/kubernetes/blob/63ee9b3f4f9b1286b2f4a6813cdeb767661a1a4c/go.mod is _k8s.io not github.com:kubernetes</t>
-  </si>
-  <si>
-    <t>CVE-2020-9482</t>
+    <t>the https://github.com/apache/karaf/commit/3e4c4bed2d08e81ca5961ab5fcadab23470db1c9 patched the vulnerability and It's possible to authenticate as a viewer role + invokes on the MLet getMBeansFromURL method, belong to org.apache.karaf.management.server</t>
+  </si>
+  <si>
+    <t>CVE-2020-9482
+GHSA-rcwj-2hj2-vmjj</t>
   </si>
   <si>
     <t>maven__fdse__org.apache.nifi.registry:nifi-registry-web-api</t>
@@ -142,58 +125,11 @@
     <t>maven__fdse__org.apache.nifi.registry:nifi-registry-core</t>
   </si>
   <si>
-    <t>If NiFi Registry 0.1.0 to 0.5.0 uses an authentication mechanism other than PKI, when the user clicks Log Out, NiFi Registry invalidates the authentication token on the client side but not on the server side, hte logout located in nifi-registry-core/nifi-registry-web-api/src/main/java/org/apache/nifi/registry/web/security/authentication/jwt/JwtService.java as the patch given https://github.com/apache/nifi-registry/pull/259/commits/32f9352465e877d71ad7f85b70f2304ba620e133#diff-a72e640a2c41fe6fe8848066f6a588da2e9e76350bef287d7e145a231042c485, in all , nifi-registry-core is the parent of the vulnerable nifi-registry-web-api</t>
-  </si>
-  <si>
-    <t>CVE-2018-3723</t>
-  </si>
-  <si>
-    <t>npm__fdse__defaults-deep</t>
-  </si>
-  <si>
-    <t>npm__fdse__default-deep</t>
-  </si>
-  <si>
-    <t>grammar mistakes? https://github.com/jonschlinkert/defaults-deep/tree/c873f341327ad885ff4d0f23b3d3bca31b0343e5 the repo and the badge is defaults-deep</t>
-  </si>
-  <si>
-    <t>CVE-2016-6816</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.tomcat:tomcat-coyote</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.tomcat:tomcat</t>
-  </si>
-  <si>
-    <t>The code that parsed the HTTP request line permitted invalid characters in AbstractInputBuffer. https://svn.apache.org/viewvc?view=rev&amp;rev=1767683</t>
-  </si>
-  <si>
-    <t>CVE-2019-10091</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.geode:geode-core</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.geode:apache-geode</t>
-  </si>
-  <si>
-    <t>When private void createIoFilter in geode-core/src/main/java/org/apache/geode/internal/tcp/Connection.java is enabled with ssl-endpoint-identification-enabled set to true, Apache Geode fails to perform hostname verification of the entries in the certificate SAN during the SSL handshake https://github.com/apache/geode/pull/3849/commits/0acac66c3a9dc564388bc900ce5275c4f2534bf7#diff-69e134fe162fb8f45afd6d09f5cfc91ded364e987dac14c770a963736c431124</t>
-  </si>
-  <si>
-    <t>CVE-2022-23913</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.activemq:artemis-core-client</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.activemq:artemis-commons</t>
-  </si>
-  <si>
-    <t>the patch is https://github.com/apache/activemq-artemis/pull/3862/files</t>
-  </si>
-  <si>
-    <t>CVE-2022-29040</t>
+    <t>NiFi Registry invalidates the authentication token on the client side but not on the server side, hte logout located in nifi-registry-core/nifi-registry-web-api/src/main/java/org/apache/nifi/registry/web/security/authentication/jwt/JwtService.java as the patch given https://github.com/apache/nifi-registry/pull/259/commits/32f9352465e877d71ad7f85b70f2304ba620e133#diff-a72e640a2c41fe6fe8848066f6a588da2e9e76350bef287d7e145a231042c485, in all , nifi-registry-core is the parent of the vulnerable nifi-registry-web-api</t>
+  </si>
+  <si>
+    <t>CVE-2022-29040
+GHSA-fcr6-6cph-vmcm</t>
   </si>
   <si>
     <t>maven__fdse__org.jenkins-ci.tools:git-parameter</t>
@@ -205,7 +141,8 @@
     <t>the group id in https://github.com/jenkinsci/git-parameter-plugin/blob/master/pom.xml is org.jenkins-ci.tools, it's parent's group id is org.jenkins-ci.plugins</t>
   </si>
   <si>
-    <t>CVE-2016-8746</t>
+    <t>CVE-2016-8746
+GHSA-xv7x-x6wr-xx7g</t>
   </si>
   <si>
     <t>maven__fdse__org.apache.ranger:ranger-plugins-common</t>
@@ -217,7 +154,8 @@
     <t>policy engine incorrectly matches paths in certain conditions when policy does not contain wildcards and has recursion flag set to true.[https://github.com/apache/ranger/commit/2fcd7f7cc175c0734443638b99c359e24c0f88ff] the patch fix resource-matcher to correctly handle policy containing only one resource whose value is '*'a</t>
   </si>
   <si>
-    <t>CVE-2015-5253</t>
+    <t>CVE-2015-5253
+GHSA-3336-h95j-hvvf</t>
   </si>
   <si>
     <t>maven__fdse__org.apache.cxf:cxf-rt-rs-security-sso-saml</t>
@@ -842,9 +780,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1379,15 +1320,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="12" customHeight="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,11 +1345,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1421,11 +1362,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -1438,11 +1379,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -1455,14 +1396,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
@@ -1472,11 +1413,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
@@ -1489,11 +1430,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
@@ -1506,11 +1447,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
@@ -1523,11 +1464,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
@@ -1540,11 +1481,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
@@ -1557,11 +1498,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
@@ -1574,110 +1515,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A17">
+  <autoFilter ref="A1:A11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
